--- a/biology/Botanique/Frankenia_ericifolia/Frankenia_ericifolia.xlsx
+++ b/biology/Botanique/Frankenia_ericifolia/Frankenia_ericifolia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Frankenia ericifolia est une espèce de plante de la famille des Frankeniaceae et du genre Frankenia.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Frankenia ericifolia a des feuilles glabres, linéaires, rarement plus larges, à peine enroulées, pétiolées et non ciliées à la base et des fleurs aux pétales roses ou blanches dans la partie supérieure de la tige[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Frankenia ericifolia a des feuilles glabres, linéaires, rarement plus larges, à peine enroulées, pétiolées et non ciliées à la base et des fleurs aux pétales roses ou blanches dans la partie supérieure de la tige.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Frankenia ericifolia est présente sur les côtes rocheuses des îles Canaries de Tenerife, La Palma et Grande Canarie[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Frankenia ericifolia est présente sur les côtes rocheuses des îles Canaries de Tenerife, La Palma et Grande Canarie.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Parasitologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La feuille a pour parasites Agdistis pseudocanariensis (en), Agdistis frankeniae, Lobesia neptunia et Puccinia frankeniae[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La feuille a pour parasites Agdistis pseudocanariensis (en), Agdistis frankeniae, Lobesia neptunia et Puccinia frankeniae.
 </t>
         </is>
       </c>
